--- a/data/n2v/tables/model-1-1536-20230830-77.xlsx
+++ b/data/n2v/tables/model-1-1536-20230830-77.xlsx
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1114" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1273" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         </is>
       </c>
       <c r="C1278" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         </is>
       </c>
       <c r="C1336" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         </is>
       </c>
       <c r="C1340" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         </is>
       </c>
       <c r="C1353" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         </is>
       </c>
       <c r="C1393" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         </is>
       </c>
       <c r="C1435" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="C1440" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         </is>
       </c>
       <c r="C1442" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C1457" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         </is>
       </c>
       <c r="C1459" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         </is>
       </c>
       <c r="C1464" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         </is>
       </c>
       <c r="C1468" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="C1483" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         </is>
       </c>
       <c r="C1495" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         </is>
       </c>
       <c r="C1523" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1523" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         </is>
       </c>
       <c r="C1524" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1524" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         </is>
       </c>
       <c r="C1526" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1526" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         </is>
       </c>
       <c r="C1535" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1535" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         </is>
       </c>
       <c r="C1537" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1537" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         </is>
       </c>
       <c r="C1542" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1542" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         </is>
       </c>
       <c r="C1547" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1547" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1554" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1574" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         </is>
       </c>
       <c r="C1585" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1585" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1586" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         </is>
       </c>
       <c r="C1598" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1598" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1602" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1610" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
